--- a/WPF_ME_Sign/Resources/Templates/ReportTemplate.xlsx
+++ b/WPF_ME_Sign/Resources/Templates/ReportTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Visual Studio 2022\Projects\WPF_ME_Sign\WPF_ME_Sign\Resources\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B77E3FC2-0296-499E-B7C7-F8E103C37FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37730A2D-2656-4DF0-89DD-3C955811AC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="519" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,10 +28,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="110">
   <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
     <t>Manpower
 Người</t>
   </si>
@@ -961,8 +957,12 @@
     <t>Chuyền/線別:  {{Line}}</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;&lt;Image Value=DesctibePicturePath Height=15 width=15&gt;&gt;
+    <t xml:space="preserve">&lt;&lt;Image Value=DesctibePicturePath Scale=1&gt;&gt;
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+&lt;&lt;Image Value=ImprovePicturePath Scale=1&gt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -1704,7 +1704,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1817,11 +1817,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2896,8 +2893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:G13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2918,7 +2915,7 @@
   <sheetData>
     <row r="1" spans="2:16" ht="75" customHeight="1">
       <c r="B1" s="41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="41"/>
       <c r="D1" s="41"/>
@@ -2933,18 +2930,18 @@
       <c r="M1" s="41"/>
     </row>
     <row r="2" spans="2:16" s="1" customFormat="1" ht="30.75" customHeight="1" thickBot="1">
-      <c r="B2" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
+      <c r="B2" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K2" s="42"/>
       <c r="L2" s="42"/>
@@ -2967,12 +2964,12 @@
     </row>
     <row r="4" spans="2:16" ht="45" customHeight="1">
       <c r="B4" s="43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="44"/>
       <c r="D4" s="44"/>
       <c r="E4" s="44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F4" s="44"/>
       <c r="G4" s="44"/>
@@ -2980,130 +2977,130 @@
       <c r="I4" s="44"/>
       <c r="J4" s="44"/>
       <c r="K4" s="44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L4" s="44"/>
       <c r="M4" s="45"/>
     </row>
     <row r="5" spans="2:16" ht="45" customHeight="1">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="53"/>
+    </row>
+    <row r="6" spans="2:16" ht="45" customHeight="1">
+      <c r="B6" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="54"/>
-    </row>
-    <row r="6" spans="2:16" ht="45" customHeight="1">
-      <c r="B6" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="57" t="s">
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="I6" s="52"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="56" t="s">
+        <v>106</v>
+      </c>
+      <c r="L6" s="52"/>
+      <c r="M6" s="53"/>
+    </row>
+    <row r="7" spans="2:16" s="1" customFormat="1" ht="45" customHeight="1">
+      <c r="B7" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="I6" s="53"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="L6" s="53"/>
-      <c r="M6" s="54"/>
-    </row>
-    <row r="7" spans="2:16" s="1" customFormat="1" ht="45" customHeight="1">
-      <c r="B7" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="60" t="s">
-        <v>106</v>
-      </c>
-      <c r="L7" s="59"/>
-      <c r="M7" s="62"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="61"/>
     </row>
     <row r="8" spans="2:16" s="1" customFormat="1" ht="45" customHeight="1">
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="83"/>
+    </row>
+    <row r="9" spans="2:16" s="1" customFormat="1" ht="45" customHeight="1">
+      <c r="B9" s="84"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="86"/>
+    </row>
+    <row r="10" spans="2:16" s="1" customFormat="1" ht="45" customHeight="1">
+      <c r="B10" s="81" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="83"/>
-      <c r="M8" s="84"/>
-    </row>
-    <row r="9" spans="2:16" s="1" customFormat="1" ht="45" customHeight="1">
-      <c r="B9" s="85"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="87"/>
-    </row>
-    <row r="10" spans="2:16" s="1" customFormat="1" ht="45" customHeight="1">
-      <c r="B10" s="82" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="84"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="83"/>
     </row>
     <row r="11" spans="2:16" s="1" customFormat="1" ht="45" customHeight="1">
-      <c r="B11" s="85"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="87"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="86"/>
     </row>
     <row r="12" spans="2:16" s="1" customFormat="1" ht="45" customHeight="1">
       <c r="B12" s="48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="49"/>
       <c r="D12" s="49"/>
@@ -3111,7 +3108,7 @@
       <c r="F12" s="49"/>
       <c r="G12" s="49"/>
       <c r="H12" s="46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I12" s="46"/>
       <c r="J12" s="46"/>
@@ -3121,151 +3118,151 @@
     </row>
     <row r="13" spans="2:16" s="1" customFormat="1" ht="263.25" customHeight="1">
       <c r="B13" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" s="49"/>
       <c r="D13" s="49"/>
       <c r="E13" s="49"/>
       <c r="F13" s="49"/>
       <c r="G13" s="49"/>
-      <c r="H13" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="51"/>
+      <c r="H13" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="50"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
     <row r="14" spans="2:16" s="1" customFormat="1" ht="107.25" customHeight="1">
       <c r="B14" s="48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="95"/>
+      <c r="G14" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="I14" s="88"/>
+      <c r="J14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="L14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="10" t="s">
         <v>2</v>
-      </c>
-      <c r="E14" s="95" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="96"/>
-      <c r="G14" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="88" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" s="89"/>
-      <c r="J14" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="L14" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>3</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="2"/>
     </row>
     <row r="15" spans="2:16" s="1" customFormat="1" ht="111" customHeight="1" thickBot="1">
-      <c r="B15" s="75"/>
+      <c r="B15" s="74"/>
       <c r="C15" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="E15" s="96" t="s">
         <v>92</v>
       </c>
-      <c r="E15" s="97" t="s">
+      <c r="F15" s="97"/>
+      <c r="G15" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="98"/>
-      <c r="G15" s="11" t="s">
+      <c r="H15" s="89"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="H15" s="90"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="37" t="s">
+      <c r="K15" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="K15" s="37" t="s">
+      <c r="L15" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="L15" s="37" t="s">
+      <c r="M15" s="12" t="s">
         <v>97</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>98</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="2"/>
     </row>
     <row r="16" spans="2:16" s="1" customFormat="1" ht="96" customHeight="1" thickBot="1">
-      <c r="B16" s="76" t="s">
+      <c r="B16" s="75" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="76"/>
+      <c r="D16" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="92"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="77"/>
-      <c r="D16" s="92" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="93"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="80" t="s">
+      <c r="H16" s="80"/>
+      <c r="I16" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="77" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="78"/>
+      <c r="L16" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="H16" s="81"/>
-      <c r="I16" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" s="78" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" s="79"/>
-      <c r="L16" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="M16" s="66"/>
+      <c r="M16" s="65"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:13" ht="102.75" customHeight="1">
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="103"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="73"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="104"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="72"/>
     </row>
     <row r="18" spans="1:13" ht="35.25" customHeight="1" thickBot="1">
-      <c r="B18" s="68"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="74"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
     </row>
     <row r="19" spans="1:13" ht="36" customHeight="1">
       <c r="B19" s="24"/>
@@ -3278,91 +3275,91 @@
       <c r="I19" s="25"/>
       <c r="J19" s="33"/>
       <c r="K19" s="33"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
     </row>
     <row r="20" spans="1:13" s="1" customFormat="1" ht="42.75" customHeight="1">
       <c r="A20" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="39"/>
       <c r="F20" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G20" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="I20" s="31" t="s">
+      <c r="J20" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="J20" s="101" t="s">
+      <c r="K20" s="101"/>
+      <c r="L20" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="K20" s="102"/>
-      <c r="L20" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="M20" s="99" t="s">
-        <v>43</v>
+      <c r="M20" s="98" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="1" customFormat="1" ht="42.75" customHeight="1">
       <c r="A21" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C21" s="38"/>
       <c r="D21" s="39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" s="39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G21" s="28"/>
       <c r="H21" s="30"/>
       <c r="I21" s="32"/>
-      <c r="J21" s="101" t="s">
-        <v>47</v>
-      </c>
-      <c r="K21" s="102"/>
+      <c r="J21" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" s="101"/>
       <c r="L21" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="M21" s="100"/>
+        <v>41</v>
+      </c>
+      <c r="M21" s="99"/>
     </row>
     <row r="22" spans="1:13" s="1" customFormat="1" ht="42.75" customHeight="1">
       <c r="A22" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G22" s="40"/>
       <c r="H22" s="40"/>
@@ -3374,22 +3371,22 @@
     </row>
     <row r="23" spans="1:13" s="1" customFormat="1" ht="42.75" customHeight="1">
       <c r="A23" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G23" s="40"/>
       <c r="H23" s="40"/>
@@ -3401,22 +3398,22 @@
     </row>
     <row r="24" spans="1:13" s="1" customFormat="1" ht="42.75" customHeight="1">
       <c r="A24" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F24" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G24" s="40"/>
       <c r="H24" s="40"/>
@@ -3428,22 +3425,22 @@
     </row>
     <row r="25" spans="1:13" s="1" customFormat="1" ht="42.75" customHeight="1">
       <c r="A25" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G25" s="40"/>
       <c r="H25" s="40"/>
@@ -3455,22 +3452,22 @@
     </row>
     <row r="26" spans="1:13" s="1" customFormat="1" ht="42.75" customHeight="1">
       <c r="A26" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G26" s="40"/>
       <c r="H26" s="40"/>
@@ -3482,22 +3479,22 @@
     </row>
     <row r="27" spans="1:13" s="1" customFormat="1" ht="42.75" customHeight="1">
       <c r="A27" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G27" s="40"/>
       <c r="H27" s="40"/>
@@ -3509,22 +3506,22 @@
     </row>
     <row r="28" spans="1:13" s="1" customFormat="1" ht="42.75" customHeight="1">
       <c r="A28" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B28" s="38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D28" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G28" s="40"/>
       <c r="H28" s="40"/>
@@ -3536,22 +3533,22 @@
     </row>
     <row r="29" spans="1:13" s="1" customFormat="1" ht="42.75" customHeight="1">
       <c r="A29" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B29" s="38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29" s="39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G29" s="40"/>
       <c r="H29" s="40"/>
@@ -3563,18 +3560,18 @@
     </row>
     <row r="30" spans="1:13" s="1" customFormat="1" ht="42.75" customHeight="1">
       <c r="A30" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="38" t="s">
         <v>87</v>
-      </c>
-      <c r="B30" s="38" t="s">
-        <v>88</v>
       </c>
       <c r="C30" s="38"/>
       <c r="D30" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E30" s="39"/>
       <c r="F30" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G30" s="40"/>
       <c r="H30" s="40"/>
@@ -3586,22 +3583,22 @@
     </row>
     <row r="31" spans="1:13" s="1" customFormat="1" ht="42.75" customHeight="1">
       <c r="A31" s="36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B31" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="22" t="s">
         <v>46</v>
-      </c>
-      <c r="C31" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="22" t="s">
-        <v>47</v>
       </c>
       <c r="G31" s="40"/>
       <c r="H31" s="40"/>
@@ -3772,271 +3769,271 @@
   <sheetData>
     <row r="3" spans="2:8" ht="15.75" thickBot="1"/>
     <row r="4" spans="2:8" ht="45.75" customHeight="1" thickBot="1">
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="112" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="113"/>
+      <c r="D4" s="110" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="111"/>
+      <c r="F4" s="110" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="114"/>
-      <c r="D4" s="111" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="112"/>
-      <c r="F4" s="111" t="s">
+      <c r="G4" s="111"/>
+      <c r="H4" s="14" t="s">
         <v>74</v>
-      </c>
-      <c r="G4" s="112"/>
-      <c r="H4" s="14" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="16.5" thickBot="1">
       <c r="B5" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="2:8" ht="16.5" thickBot="1">
       <c r="B6" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H6" s="17"/>
     </row>
     <row r="7" spans="2:8" ht="16.5" thickBot="1">
       <c r="B7" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>52</v>
-      </c>
       <c r="E7" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" s="17"/>
     </row>
     <row r="8" spans="2:8" ht="16.5" thickBot="1">
       <c r="B8" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>54</v>
-      </c>
       <c r="G8" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H8" s="17"/>
     </row>
     <row r="9" spans="2:8" ht="16.5" thickBot="1">
       <c r="B9" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>56</v>
-      </c>
       <c r="G9" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="17"/>
     </row>
     <row r="10" spans="2:8" ht="16.5" thickBot="1">
       <c r="B10" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>58</v>
-      </c>
       <c r="G10" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" s="17"/>
     </row>
     <row r="11" spans="2:8" ht="16.5" thickBot="1">
       <c r="B11" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11" s="17"/>
     </row>
     <row r="12" spans="2:8" ht="16.5" thickBot="1">
       <c r="B12" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>56</v>
-      </c>
       <c r="G12" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12" s="17"/>
     </row>
     <row r="13" spans="2:8" ht="16.5" thickBot="1">
       <c r="B13" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="16" t="s">
+      <c r="E13" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>63</v>
-      </c>
       <c r="G13" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H13" s="17"/>
     </row>
     <row r="14" spans="2:8" ht="16.5" thickBot="1">
       <c r="B14" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="16" t="s">
+      <c r="E14" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="E14" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>66</v>
-      </c>
       <c r="G14" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H14" s="17"/>
     </row>
     <row r="15" spans="2:8" ht="16.5" thickBot="1">
       <c r="B15" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>88</v>
-      </c>
       <c r="D15" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15" s="17"/>
     </row>
     <row r="16" spans="2:8" ht="16.5" thickBot="1">
       <c r="B16" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="E16" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="19" t="s">
         <v>46</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>47</v>
       </c>
       <c r="H16" s="18"/>
     </row>
